--- a/biology/Zoologie/Cyclosa_conica/Cyclosa_conica.xlsx
+++ b/biology/Zoologie/Cyclosa_conica/Cyclosa_conica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclosa conica est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclosa conica est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone holarctique.
 Il y a également quelques observations sud-américaines.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent de 3,6 à 7,9 mm et les mâles de 3,5 à 4,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent de 3,6 à 7,9 mm et les mâles de 3,5 à 4,9 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea conica par Pallas en 1772. Elle est placée dans le genre Epeira par Walckenaer en 1802[3], dans le genre Singa par C. L. Koch en 1837[4] puis dans le genre Cyclosa par Menge en 1866[5].
-Les sous-espèce Cyclosa conica albifoliata[6], Cyclosa conica defoliata[6], Cyclosa conica dimidiata[7], Cyclosa conica leucomelas[6], Cyclosa conica pyrenaica[6], Cyclosa conica rubricauda[7] et Cyclosa conica triangulifera[7] ont été placées en synonymie avec Cyclosa conica par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016[8]. Cyclosa conica zamezai[9] a été déclarée nomen dubium.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea conica par Pallas en 1772. Elle est placée dans le genre Epeira par Walckenaer en 1802, dans le genre Singa par C. L. Koch en 1837 puis dans le genre Cyclosa par Menge en 1866.
+Les sous-espèce Cyclosa conica albifoliata, Cyclosa conica defoliata, Cyclosa conica dimidiata, Cyclosa conica leucomelas, Cyclosa conica pyrenaica, Cyclosa conica rubricauda et Cyclosa conica triangulifera ont été placées en synonymie avec Cyclosa conica par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016. Cyclosa conica zamezai a été déclarée nomen dubium.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pallas, 1772 : Spicilegia zoologica. Tomus 1. Continens quadrupedium, avium, amphibiorum, piscium, insectorum, molluscorum aliorumque marinorum fasciculos decem. Berolini, vol. 1, no 9, p. 44-50.</t>
         </is>
